--- a/Team-Data/2008-09/3-29-2008-09.xlsx
+++ b/Team-Data/2008-09/3-29-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
         <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>0.581</v>
+        <v>0.575</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -687,22 +754,22 @@
         <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M2" t="n">
         <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O2" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P2" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>0.732</v>
@@ -711,10 +778,10 @@
         <v>10.7</v>
       </c>
       <c r="S2" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U2" t="n">
         <v>20.4</v>
@@ -726,28 +793,28 @@
         <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z2" t="n">
         <v>19.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -759,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -774,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -798,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
         <v>10</v>
@@ -807,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -816,10 +883,10 @@
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -863,70 +930,70 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P3" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y3" t="n">
         <v>4.7</v>
       </c>
-      <c r="Y3" t="n">
-        <v>4.8</v>
-      </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -959,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -974,22 +1041,22 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1138,10 +1205,10 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1150,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>24</v>
@@ -1162,10 +1229,10 @@
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -1215,25 +1282,25 @@
         <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.473</v>
+        <v>0.486</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1245,28 +1312,28 @@
         <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
         <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
         <v>20.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1278,40 +1345,40 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1323,10 +1390,10 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1338,13 +1405,13 @@
         <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>12</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -1397,22 +1464,22 @@
         <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.833</v>
+        <v>0.819</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
@@ -1421,34 +1488,34 @@
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1457,22 +1524,22 @@
         <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,46 +1569,46 @@
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -1576,52 +1643,52 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
         <v>43</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.589</v>
+        <v>0.597</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J7" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O7" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
         <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
         <v>42.9</v>
@@ -1642,19 +1709,19 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.1</v>
+        <v>101.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,28 +1733,28 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN7" t="n">
         <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="n">
         <v>28</v>
@@ -1696,28 +1763,28 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT7" t="n">
         <v>6</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>5</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,7 +1918,7 @@
         <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
@@ -1863,10 +1930,10 @@
         <v>19</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1887,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
@@ -1899,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1908,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
         <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.493</v>
+        <v>0.486</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I9" t="n">
         <v>36.3</v>
       </c>
       <c r="J9" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1976,19 +2043,19 @@
         <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U9" t="n">
         <v>20.7</v>
@@ -2000,37 +2067,37 @@
         <v>6.2</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2039,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2057,7 +2124,7 @@
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2075,13 +2142,13 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,10 +2288,10 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
         <v>9</v>
@@ -2248,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2445,19 +2512,19 @@
         <v>25</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
         <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>0.419</v>
+        <v>0.411</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="J12" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
@@ -2516,7 +2583,7 @@
         <v>21.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O12" t="n">
         <v>18.4</v>
@@ -2528,13 +2595,13 @@
         <v>0.805</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>21.7</v>
@@ -2549,34 +2616,34 @@
         <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
         <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>104</v>
+        <v>103.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2594,22 +2661,22 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
       </c>
       <c r="AP12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2627,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2636,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2770,7 +2837,7 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
@@ -2800,7 +2867,7 @@
         <v>14</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2812,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -2853,55 +2920,55 @@
         <v>72</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.792</v>
+        <v>0.806</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="J14" t="n">
         <v>85.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
         <v>19.6</v>
       </c>
       <c r="P14" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
         <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2916,19 +2983,19 @@
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.6</v>
+        <v>107.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2958,22 +3025,22 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,10 +3058,10 @@
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3158,7 +3225,7 @@
         <v>29</v>
       </c>
       <c r="AT15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -3292,19 +3359,19 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3328,7 +3395,7 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3364,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>0.425</v>
+        <v>0.419</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,7 +3484,7 @@
         <v>82.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
@@ -3432,7 +3499,7 @@
         <v>20</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.782</v>
@@ -3441,16 +3508,16 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
         <v>7.3</v>
@@ -3462,25 +3529,25 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -3510,7 +3577,7 @@
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,10 +3586,10 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>10</v>
@@ -3531,13 +3598,13 @@
         <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
         <v>53</v>
       </c>
       <c r="G18" t="n">
-        <v>0.284</v>
+        <v>0.274</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,40 +3663,40 @@
         <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
         <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O18" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P18" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q18" t="n">
         <v>0.769</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
         <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U18" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V18" t="n">
         <v>14.2</v>
@@ -3641,7 +3708,7 @@
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z18" t="n">
         <v>21.8</v>
@@ -3650,25 +3717,25 @@
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>18</v>
@@ -3680,7 +3747,7 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
@@ -3689,16 +3756,16 @@
         <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>19</v>
@@ -3707,16 +3774,16 @@
         <v>14</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3728,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>0.411</v>
+        <v>0.417</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3784,19 +3851,19 @@
         <v>0.449</v>
       </c>
       <c r="L19" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
         <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P19" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0.779</v>
@@ -3811,7 +3878,7 @@
         <v>39.8</v>
       </c>
       <c r="U19" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V19" t="n">
         <v>13.1</v>
@@ -3826,7 +3893,7 @@
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA19" t="n">
         <v>20.6</v>
@@ -3835,22 +3902,22 @@
         <v>98.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG19" t="n">
         <v>20</v>
       </c>
-      <c r="AG19" t="n">
-        <v>21</v>
-      </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3859,16 +3926,16 @@
         <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
         <v>16</v>
@@ -3898,7 +3965,7 @@
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -3942,55 +4009,55 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J20" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
         <v>0.368</v>
       </c>
       <c r="O20" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U20" t="n">
         <v>19.6</v>
@@ -4005,13 +4072,13 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB20" t="n">
         <v>95.8</v>
@@ -4020,16 +4087,16 @@
         <v>2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>10</v>
@@ -4050,13 +4117,13 @@
         <v>13</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4068,16 +4135,16 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU20" t="n">
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4089,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4235,10 +4302,10 @@
         <v>19</v>
       </c>
       <c r="AO21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP21" t="n">
         <v>21</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>22</v>
       </c>
       <c r="AQ21" t="n">
         <v>8</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -4306,40 +4373,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" t="n">
-        <v>0.274</v>
+        <v>0.278</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M22" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
         <v>25.5</v>
@@ -4351,10 +4418,10 @@
         <v>12.4</v>
       </c>
       <c r="S22" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T22" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
@@ -4366,46 +4433,46 @@
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y22" t="n">
         <v>4.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA22" t="n">
         <v>20.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.8</v>
+        <v>-5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF22" t="n">
         <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4420,10 +4487,10 @@
         <v>6</v>
       </c>
       <c r="AP22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>10</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>9</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
@@ -4432,10 +4499,10 @@
         <v>13</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4453,7 +4520,7 @@
         <v>11</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,13 +4645,13 @@
         <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4626,7 +4693,7 @@
         <v>20</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4737,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
         <v>37</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.514</v>
+        <v>0.521</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J24" t="n">
         <v>80.09999999999999</v>
@@ -4706,31 +4773,31 @@
         <v>19.8</v>
       </c>
       <c r="P24" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S24" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U24" t="n">
         <v>20.3</v>
       </c>
       <c r="V24" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
       </c>
       <c r="X24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
@@ -4739,7 +4806,7 @@
         <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB24" t="n">
         <v>97.5</v>
@@ -4748,13 +4815,13 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4763,13 +4830,13 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4793,13 +4860,13 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AV24" t="n">
         <v>17</v>
@@ -4814,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="n">
         <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.541</v>
+        <v>0.548</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="J25" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.504</v>
@@ -4879,25 +4946,25 @@
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="N25" t="n">
         <v>0.381</v>
       </c>
       <c r="O25" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P25" t="n">
         <v>26.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
         <v>41.6</v>
@@ -4924,13 +4991,13 @@
         <v>22.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4948,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4957,7 +5024,7 @@
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
         <v>6</v>
@@ -4969,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR25" t="n">
         <v>20</v>
@@ -4978,7 +5045,7 @@
         <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
@@ -4993,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>17</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
         <v>46</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.639</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5064,28 +5131,28 @@
         <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5097,37 +5164,37 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5139,19 +5206,19 @@
         <v>9</v>
       </c>
       <c r="AM26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
         <v>17</v>
       </c>
-      <c r="AP26" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,13 +5227,13 @@
         <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
         <v>56</v>
       </c>
       <c r="G27" t="n">
-        <v>0.222</v>
+        <v>0.211</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>6.9</v>
@@ -5246,7 +5313,7 @@
         <v>19.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O27" t="n">
         <v>20.6</v>
@@ -5255,7 +5322,7 @@
         <v>25.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
       <c r="R27" t="n">
         <v>10</v>
@@ -5264,10 +5331,10 @@
         <v>28.7</v>
       </c>
       <c r="T27" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V27" t="n">
         <v>15.7</v>
@@ -5276,7 +5343,7 @@
         <v>7.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>5</v>
@@ -5288,13 +5355,13 @@
         <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,19 +5376,19 @@
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>11</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>18</v>
@@ -5336,25 +5403,25 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS27" t="n">
         <v>27</v>
       </c>
       <c r="AT27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="n">
         <v>48</v>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>0.658</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I28" t="n">
         <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
         <v>7.7</v>
       </c>
       <c r="M28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.389</v>
+        <v>0.392</v>
       </c>
       <c r="O28" t="n">
         <v>15</v>
@@ -5449,13 +5516,13 @@
         <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
         <v>11.8</v>
       </c>
       <c r="W28" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X28" t="n">
         <v>4.2</v>
@@ -5464,19 +5531,19 @@
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA28" t="n">
         <v>18.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,10 +5555,10 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -5503,10 +5570,10 @@
         <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5521,10 +5588,10 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5539,7 +5606,7 @@
         <v>26</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>24</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.384</v>
+        <v>0.375</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J29" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
@@ -5610,31 +5677,31 @@
         <v>15.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.828</v>
+        <v>0.827</v>
       </c>
       <c r="R29" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V29" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W29" t="n">
         <v>6.2</v>
@@ -5652,13 +5719,13 @@
         <v>20.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5670,10 +5737,10 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI29" t="n">
         <v>15</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>14</v>
       </c>
       <c r="AJ29" t="n">
         <v>16</v>
@@ -5688,13 +5755,13 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,10 +5773,10 @@
         <v>11</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
@@ -5730,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -5840,25 +5907,25 @@
         <v>3.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5888,7 +5955,7 @@
         <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5897,7 +5964,7 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" t="n">
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
-        <v>0.227</v>
+        <v>0.23</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5974,31 +6041,31 @@
         <v>14.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="O31" t="n">
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="P31" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="T31" t="n">
         <v>39.9</v>
       </c>
       <c r="U31" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V31" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
         <v>7.6</v>
@@ -6007,19 +6074,19 @@
         <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.8</v>
+        <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -6037,13 +6104,13 @@
         <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6055,10 +6122,10 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
@@ -6073,22 +6140,22 @@
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-29-2008-09</t>
+          <t>2009-03-29</t>
         </is>
       </c>
     </row>
